--- a/assignment-3/Assignment_3_ Submission_Template.xlsx
+++ b/assignment-3/Assignment_3_ Submission_Template.xlsx
@@ -32127,7 +32127,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>0.999</v>
+        <v>0.9989951007330653</v>
       </c>
     </row>
     <row r="92" spans="1:785">
@@ -32146,7 +32146,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>0.3636</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="94" spans="1:785">
@@ -32157,7 +32157,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>0.3901</v>
+        <v>0.6141790952810965</v>
       </c>
     </row>
     <row r="97" spans="1:785">
@@ -32165,7 +32165,7 @@
         <v>32</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>91.63</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" spans="1:785">
@@ -32173,7 +32173,7 @@
         <v>33</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>92.54000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
